--- a/medicine/Enfance/The_Magicians_(roman)/The_Magicians_(roman).xlsx
+++ b/medicine/Enfance/The_Magicians_(roman)/The_Magicians_(roman).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-The Magicians est un roman pour jeunes adultes de l'auteur américain Lev Grossman, publié en 2009 par Viking Press. Il raconte l'histoire de Quentin Coldwater, un jeune homme qui découvre et fréquente une université secrète de magie à New York. Le roman a été acclamé par la critique puis a été complété par un deuxième roman Le Roi magicien en 2011[1],[2] et un troisième en 2014: La Terre du magicien
-Une adaptation en série télévisée a été diffusée sur Syfy en 2015. Grossman a également travaillé sur deux comics basés sur ses romans[3].
+The Magicians est un roman pour jeunes adultes de l'auteur américain Lev Grossman, publié en 2009 par Viking Press. Il raconte l'histoire de Quentin Coldwater, un jeune homme qui découvre et fréquente une université secrète de magie à New York. Le roman a été acclamé par la critique puis a été complété par un deuxième roman Le Roi magicien en 2011, et un troisième en 2014: La Terre du magicien
+Une adaptation en série télévisée a été diffusée sur Syfy en 2015. Grossman a également travaillé sur deux comics basés sur ses romans.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Quentin Coldwater est un lycéen de Brooklyn qui aime une série de romans intitulée « Fillory et au-delà », qui emmène les enfants de la famille Chatwin à la découverte d'un monde magique nommé Fillory, dans un genre proche du monde de Narnia. Lui et ses meilleurs amis, James et Julia, postulent pour entrer à l'Université de Princeton. Le jour de son examen d'entrée Quentin est, en réalité, transporté à l'Université de Brakebills, la seule école de magie en Amérique du Nord. Il y réussit les tests et les entretiens et est accepté comme l'un des vingt nouveaux étudiants.
 Après avoir commencé ses études à Brakebills, il se rend compte de la difficulté à apprendre la magie. Le programme d'études implique en effet l'apprentissage de nombreuses langues anciennes et perdues et d'innombrables positions des mains. Malgré cela, Quentin et ses camarades, Penny et Alice, sont autorisés à sauter une classe à condition de réussir un examen spécial. Penny échoue à cet examen et reste en 1ère année. Jaloux de la réussite de Quentin ils finissent par se battre. Un jour, pendant les cours, Quentin qui s'ennuie altère un sort créant une ouverture d'où sort une horreur d'un autre monde appelée « la Bête ». Elle réussit à dévorer un étudiant avant que les membres de l'université ne réussissent à la chasser.
@@ -550,7 +564,9 @@
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Quentin Makepeace Coldwater - Un étudiant fan d'une série de livres pour enfants se déroulant sur une terre magique appelée Fillory. Il découvre et fréquente une université de magie avant de découvrir que Fillory est réelle et de voyager là-bas.
 Alice Quinn - Une magicienne talentueuse que Quentin rencontre lors de ses cours à Brakebills. Elle est d'abord extrêmement réservée, mais s'ouvre à lui lorsqu'elle se retrouve dans le même groupe de magie. Quentin et elle finissent par développer une relation amoureuse.
@@ -586,9 +602,11 @@
           <t>Influences</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grossman a publiquement discuté de ses influences littéraires, qualifiant T.H. White de « mentor littéraire », et en particulier de l'influence que La Quête du Roi Arthur a eue sur son travail[4]. Le roman et ses suites sont aussi influencés par les Chroniques de Narnia de CS Lewis[4],[5]. D'autres influences littéraires incluent Harry Potter[5], Le Sorcier de Terremer[4], Jonathan Strange and Mr. Norrell[5],[4], Watchmen[5], Larry Niven's Warlock stories[5], et Le Cycle des épées[4] de Fritz Leiber's, tandis que le film Highlander a contribué à influencer l'ambiance du monde du roman[6]. L'auteur avait à l'origine voulu établir un lien direct avec les romans de Lewis et inclure Le Bois d'Entre-les-mondes dans son récit, mais les avocats de sa maison d'édition s'y sont opposés. Il a par conséquent remplacé son évocation par le Neitherlands[7],[8]. Grossman a déclaré que l'intrigue a commencé comme un rêve d'une bête envahissant une salle de classe magique[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grossman a publiquement discuté de ses influences littéraires, qualifiant T.H. White de « mentor littéraire », et en particulier de l'influence que La Quête du Roi Arthur a eue sur son travail. Le roman et ses suites sont aussi influencés par les Chroniques de Narnia de CS Lewis,. D'autres influences littéraires incluent Harry Potter, Le Sorcier de Terremer, Jonathan Strange and Mr. Norrell Watchmen, Larry Niven's Warlock stories, et Le Cycle des épées de Fritz Leiber's, tandis que le film Highlander a contribué à influencer l'ambiance du monde du roman. L'auteur avait à l'origine voulu établir un lien direct avec les romans de Lewis et inclure Le Bois d'Entre-les-mondes dans son récit, mais les avocats de sa maison d'édition s'y sont opposés. Il a par conséquent remplacé son évocation par le Neitherlands,. Grossman a déclaré que l'intrigue a commencé comme un rêve d'une bête envahissant une salle de classe magique.
 </t>
         </is>
       </c>
@@ -617,11 +635,13 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La critique de The AV Club a donné au roman la note de A, le qualifiant de « meilleur fantasme urbain depuis des années, un triste rêve de ce que signifie vouloir quelque chose à tout prix et ne jamais l'atteindre complètement »[10].
-La critique du New York Times a déclaré que le livre « pourrait grossièrement être qualifié de Harry Potter pour adultes », ajoutant des « thèmes matures » dans la littérature fantastique[11].
-The Magicians a remporté le prix Alex en 2010, décerné à dix livres pour adultes qui plaisent aux adolescents, et son auteur a remporté le prix John W. Campbell 2011 du meilleur nouvel écrivain[12].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La critique de The AV Club a donné au roman la note de A, le qualifiant de « meilleur fantasme urbain depuis des années, un triste rêve de ce que signifie vouloir quelque chose à tout prix et ne jamais l'atteindre complètement ».
+La critique du New York Times a déclaré que le livre « pourrait grossièrement être qualifié de Harry Potter pour adultes », ajoutant des « thèmes matures » dans la littérature fantastique.
+The Magicians a remporté le prix Alex en 2010, décerné à dix livres pour adultes qui plaisent aux adolescents, et son auteur a remporté le prix John W. Campbell 2011 du meilleur nouvel écrivain.
 </t>
         </is>
       </c>
@@ -652,16 +672,95 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Télévision
-En 2011, la Fox a commencé par poser une option sur l'adaptation mais s'est finalement ravisée. En juillet 2014, Syfy a donné son feu vert à la production d'un épisode pilote[13] et a commandé une première saison de 12 épisodes qui a été diffusée en janvier 2016[14]. La série a été ensuite renouvelée pour une deuxième saison composée de 13 épisodes, diffusée en 2017[15].
-La série Syfy est écrite par John McNamara et Sera Gamble et produite par Michael London et Janice Williams[13]. L'épisode pilote a été réalisé par Mike Cahill et le casting comprend Jason Ralph dans le rôle de Quentin[16], Olivia Taylor Dudley dans le rôle d'Alice, Hale Appleman dans le rôle d'Eliot, Summer Bishil dans le rôle de Margo Hanson (Janet dans le roman)[17], Arjun Gupta pour Penny, Stella Maeve pourJulia et Rick Worthy pour Henry Fogg[14],[18].
-Différences entre la série et le roman
-La série fait vieillir les personnages pour les rendre étudiants et réduit le nombre d'années d'étude à Brakebills à trois ans. La plupart des événements détaillés dans le roman, le voyage en Antarctique par exemple, semblent se produire au cours de la première année de Quentin à Brakebills. Les années du roman étant à peu près condensées en semestres dans l'émission télévisée. Jane Chatwin est impliquée plus tôt et plus fortement dans l'intrigue, et Quentin reçoit un diagnostic plus formel de dépression.
-Comics
-Grossman a contribué à deux adaptations en comics de son roman en 2019, publié par Boom! Studios!: The Magicians : Alice's Story et The Magicians[19].
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2011, la Fox a commencé par poser une option sur l'adaptation mais s'est finalement ravisée. En juillet 2014, Syfy a donné son feu vert à la production d'un épisode pilote et a commandé une première saison de 12 épisodes qui a été diffusée en janvier 2016. La série a été ensuite renouvelée pour une deuxième saison composée de 13 épisodes, diffusée en 2017.
+La série Syfy est écrite par John McNamara et Sera Gamble et produite par Michael London et Janice Williams. L'épisode pilote a été réalisé par Mike Cahill et le casting comprend Jason Ralph dans le rôle de Quentin, Olivia Taylor Dudley dans le rôle d'Alice, Hale Appleman dans le rôle d'Eliot, Summer Bishil dans le rôle de Margo Hanson (Janet dans le roman), Arjun Gupta pour Penny, Stella Maeve pourJulia et Rick Worthy pour Henry Fogg,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>The_Magicians_(roman)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Magicians_(roman)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Différences entre la série et le roman</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série fait vieillir les personnages pour les rendre étudiants et réduit le nombre d'années d'étude à Brakebills à trois ans. La plupart des événements détaillés dans le roman, le voyage en Antarctique par exemple, semblent se produire au cours de la première année de Quentin à Brakebills. Les années du roman étant à peu près condensées en semestres dans l'émission télévisée. Jane Chatwin est impliquée plus tôt et plus fortement dans l'intrigue, et Quentin reçoit un diagnostic plus formel de dépression.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>The_Magicians_(roman)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Magicians_(roman)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Comics</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grossman a contribué à deux adaptations en comics de son roman en 2019, publié par Boom! Studios!: The Magicians : Alice's Story et The Magicians.
 En France c'est Urban Comics qui est chargé de la diffusion.
-La première adaptation en comics est le roman graphique intitulé The Magicians : Alice's Story[20]. L'histoire de la bande dessinée est assez similaire à celle du roman original, mais racontée du point de vue d'Alice. La bande dessinée se termine par la mort d'Alice et montre un peu plus ses pensées et sa vie en tant que Niffin. Il développe également des parties de la vie d'Alice ainsi que des événements qui ont été mentionnés dans le roman ainsi que dans l'émission de télévision.
-The Magicians: The New Class est la deuxième adaptation en comics de la série. Cette histoire diffère de l'adaptation précédente car elle se concentre sur un groupe d'étudiants diffèrent mais toujours à Brakebills[21].
+La première adaptation en comics est le roman graphique intitulé The Magicians : Alice's Story. L'histoire de la bande dessinée est assez similaire à celle du roman original, mais racontée du point de vue d'Alice. La bande dessinée se termine par la mort d'Alice et montre un peu plus ses pensées et sa vie en tant que Niffin. Il développe également des parties de la vie d'Alice ainsi que des événements qui ont été mentionnés dans le roman ainsi que dans l'émission de télévision.
+The Magicians: The New Class est la deuxième adaptation en comics de la série. Cette histoire diffère de l'adaptation précédente car elle se concentre sur un groupe d'étudiants diffèrent mais toujours à Brakebills.
 </t>
         </is>
       </c>
